--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB718F-1D69-4B52-94E3-38B17CC828EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032AA08C-721C-4DA4-A359-37A3795EC8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -535,13 +535,20 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032AA08C-721C-4DA4-A359-37A3795EC8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE420D9-8E29-4BFB-B673-D948F716133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,12 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +543,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +595,9 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -602,7 +612,9 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3">
+        <v>101</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -617,7 +629,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3">
+        <v>102</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -632,7 +646,9 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3">
+        <v>103</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -647,7 +663,9 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3">
+        <v>104</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -662,7 +680,9 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3">
+        <v>105</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -677,7 +697,9 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3">
+        <v>106</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -692,7 +714,9 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3">
+        <v>107</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -707,7 +731,9 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3">
+        <v>108</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -722,7 +748,9 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3">
+        <v>109</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -737,7 +765,9 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3">
+        <v>110</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -752,7 +782,9 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3">
+        <v>111</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE420D9-8E29-4BFB-B673-D948F716133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9130C-DB06-4678-B3DE-ECA9A958561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,13 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +551,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +606,9 @@
       <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3">
+        <v>150</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -615,7 +625,9 @@
       <c r="C3" s="3">
         <v>101</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -632,7 +644,9 @@
       <c r="C4" s="3">
         <v>102</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -649,7 +663,9 @@
       <c r="C5" s="3">
         <v>103</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -666,7 +682,9 @@
       <c r="C6" s="3">
         <v>104</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3">
+        <v>110</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -683,7 +701,9 @@
       <c r="C7" s="3">
         <v>105</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -700,7 +720,9 @@
       <c r="C8" s="3">
         <v>106</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -717,7 +739,9 @@
       <c r="C9" s="3">
         <v>107</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -731,10 +755,12 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>108</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3">
+        <v>130</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -748,10 +774,12 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>109</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -765,10 +793,12 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>110</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -782,10 +812,12 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>111</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9130C-DB06-4678-B3DE-ECA9A958561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776070DC-8A38-44EC-BFB6-4593CCACCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F107F-E25D-49E3-A8C0-030E9B4338FB}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,9 @@
         <v>150</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -629,7 +631,9 @@
         <v>100</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -648,7 +652,9 @@
         <v>100</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -667,7 +673,9 @@
         <v>100</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3">
+        <v>40</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -686,7 +694,9 @@
         <v>110</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -705,7 +715,9 @@
         <v>100</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -724,7 +736,9 @@
         <v>100</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3">
+        <v>70</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -743,7 +757,9 @@
         <v>100</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3">
+        <v>80</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -762,7 +778,9 @@
         <v>130</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3">
+        <v>90</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -781,7 +799,9 @@
         <v>100</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3">
+        <v>100</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -800,7 +820,9 @@
         <v>100</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3">
+        <v>110</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -819,7 +841,9 @@
         <v>100</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3">
+        <v>120</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776070DC-8A38-44EC-BFB6-4593CCACCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC51AC8-F470-4AD9-91E5-B8F75B4E1F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F107F-E25D-49E3-A8C0-030E9B4338FB}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,9 @@
       <c r="D2" s="3">
         <v>150</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3">
+        <v>160</v>
+      </c>
       <c r="F2" s="3">
         <v>10</v>
       </c>
@@ -630,7 +632,9 @@
       <c r="D3" s="3">
         <v>100</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3">
+        <v>150</v>
+      </c>
       <c r="F3" s="3">
         <v>20</v>
       </c>
@@ -651,7 +655,9 @@
       <c r="D4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3">
+        <v>140</v>
+      </c>
       <c r="F4" s="3">
         <v>30</v>
       </c>
@@ -672,7 +678,9 @@
       <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3">
+        <v>130</v>
+      </c>
       <c r="F5" s="3">
         <v>40</v>
       </c>
@@ -693,7 +701,9 @@
       <c r="D6" s="3">
         <v>110</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3">
+        <v>120</v>
+      </c>
       <c r="F6" s="3">
         <v>50</v>
       </c>
@@ -714,7 +724,9 @@
       <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3">
+        <v>110</v>
+      </c>
       <c r="F7" s="3">
         <v>60</v>
       </c>
@@ -735,7 +747,9 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
       <c r="F8" s="3">
         <v>70</v>
       </c>
@@ -756,7 +770,9 @@
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3">
+        <v>90</v>
+      </c>
       <c r="F9" s="3">
         <v>80</v>
       </c>
@@ -777,7 +793,9 @@
       <c r="D10" s="3">
         <v>130</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3">
+        <v>90</v>
+      </c>
       <c r="F10" s="3">
         <v>90</v>
       </c>
@@ -798,7 +816,9 @@
       <c r="D11" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3">
+        <v>90</v>
+      </c>
       <c r="F11" s="3">
         <v>100</v>
       </c>
@@ -819,7 +839,9 @@
       <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3">
+        <v>90</v>
+      </c>
       <c r="F12" s="3">
         <v>110</v>
       </c>
@@ -840,7 +862,9 @@
       <c r="D13" s="3">
         <v>100</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3">
+        <v>90</v>
+      </c>
       <c r="F13" s="3">
         <v>120</v>
       </c>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC51AC8-F470-4AD9-91E5-B8F75B4E1F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7833B45B-63AD-4CEF-BF40-58B5354DBF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="3">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F13" s="3">
         <v>120</v>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7833B45B-63AD-4CEF-BF40-58B5354DBF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AC7BA-ACF7-43A1-AAAC-166BF03E6479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F107F-E25D-49E3-A8C0-030E9B4338FB}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,9 +615,13 @@
       <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -638,9 +642,13 @@
       <c r="F3" s="3">
         <v>20</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -661,9 +669,13 @@
       <c r="F4" s="3">
         <v>30</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -684,9 +696,13 @@
       <c r="F5" s="3">
         <v>40</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -707,9 +723,13 @@
       <c r="F6" s="3">
         <v>50</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -730,9 +750,13 @@
       <c r="F7" s="3">
         <v>60</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3">
+        <v>105</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -753,9 +777,13 @@
       <c r="F8" s="3">
         <v>70</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -776,9 +804,13 @@
       <c r="F9" s="3">
         <v>80</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -799,9 +831,13 @@
       <c r="F10" s="3">
         <v>90</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -822,9 +858,13 @@
       <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -845,9 +885,13 @@
       <c r="F12" s="3">
         <v>110</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -868,9 +912,13 @@
       <c r="F13" s="3">
         <v>120</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3">
+        <v>100</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AC7BA-ACF7-43A1-AAAC-166BF03E6479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B94268-C5E7-434D-8F12-FE661AB17C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F107F-E25D-49E3-A8C0-030E9B4338FB}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,25 +603,13 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3">
-        <v>160</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>100</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="3">
-        <v>100</v>
-      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -630,25 +618,13 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
-        <v>101</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3">
-        <v>150</v>
-      </c>
-      <c r="F3" s="3">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="3">
-        <v>101</v>
-      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -657,25 +633,13 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
-        <v>102</v>
-      </c>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>140</v>
-      </c>
-      <c r="F4" s="3">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3">
-        <v>100</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="3">
-        <v>102</v>
-      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -684,25 +648,13 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
-        <v>103</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>130</v>
-      </c>
-      <c r="F5" s="3">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3">
-        <v>103</v>
-      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -711,25 +663,13 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
-        <v>104</v>
-      </c>
-      <c r="D6" s="3">
-        <v>110</v>
-      </c>
-      <c r="E6" s="3">
-        <v>120</v>
-      </c>
-      <c r="F6" s="3">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3">
-        <v>100</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="3">
-        <v>104</v>
-      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -738,25 +678,13 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
-        <v>105</v>
-      </c>
-      <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>110</v>
-      </c>
-      <c r="F7" s="3">
-        <v>60</v>
-      </c>
-      <c r="G7" s="3">
-        <v>100</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="3">
-        <v>105</v>
-      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -765,25 +693,13 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
-        <v>106</v>
-      </c>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>70</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="3">
-        <v>106</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -792,25 +708,13 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3">
-        <v>107</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3">
-        <v>80</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="3">
-        <v>107</v>
-      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -819,25 +723,13 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4">
-        <v>108</v>
-      </c>
-      <c r="D10" s="3">
-        <v>130</v>
-      </c>
-      <c r="E10" s="3">
-        <v>90</v>
-      </c>
-      <c r="F10" s="3">
-        <v>90</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="3">
-        <v>108</v>
-      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -846,25 +738,13 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4">
-        <v>109</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
-        <v>90</v>
-      </c>
-      <c r="F11" s="3">
-        <v>100</v>
-      </c>
-      <c r="G11" s="3">
-        <v>100</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="3">
-        <v>109</v>
-      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -873,25 +753,13 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4">
-        <v>110</v>
-      </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>90</v>
-      </c>
-      <c r="F12" s="3">
-        <v>110</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="3">
-        <v>110</v>
-      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -900,25 +768,13 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4">
-        <v>111</v>
-      </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3">
-        <v>160</v>
-      </c>
-      <c r="F13" s="3">
-        <v>120</v>
-      </c>
-      <c r="G13" s="3">
-        <v>100</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="3">
-        <v>111</v>
-      </c>
+      <c r="I13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B94268-C5E7-434D-8F12-FE661AB17C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B48B3-9914-4D4A-A757-549410F00433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,7 +165,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.59999389629810485"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -214,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +559,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +611,9 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4">
+        <v>110</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -618,7 +628,9 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4">
+        <v>110</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -633,7 +645,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4">
+        <v>110</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -648,7 +662,9 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4">
+        <v>109</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -663,7 +679,9 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="5">
+        <v>108</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -678,7 +696,9 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5">
+        <v>107</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -693,7 +713,9 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5">
+        <v>106</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -708,7 +730,9 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="5">
+        <v>105</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -723,7 +747,9 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3">
+        <v>104</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -738,7 +764,9 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3">
+        <v>103</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -753,7 +781,9 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3">
+        <v>102</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -768,7 +798,9 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3">
+        <v>101</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B48B3-9914-4D4A-A757-549410F00433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1900FC2-A940-4728-9D0D-26416568F2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,9 @@
       <c r="C2" s="4">
         <v>110</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>101</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -631,7 +633,9 @@
       <c r="C3" s="4">
         <v>110</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>101</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -648,7 +652,9 @@
       <c r="C4" s="4">
         <v>110</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>101</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -665,7 +671,9 @@
       <c r="C5" s="4">
         <v>109</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>101</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -682,7 +690,9 @@
       <c r="C6" s="5">
         <v>108</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>110</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -699,7 +709,9 @@
       <c r="C7" s="5">
         <v>107</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>99</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -716,7 +728,9 @@
       <c r="C8" s="5">
         <v>106</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>99</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -733,7 +747,9 @@
       <c r="C9" s="5">
         <v>105</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>99</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -750,7 +766,9 @@
       <c r="C10" s="3">
         <v>104</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>99</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -767,7 +785,9 @@
       <c r="C11" s="3">
         <v>103</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>99</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -784,7 +804,9 @@
       <c r="C12" s="3">
         <v>102</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>99</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -801,7 +823,9 @@
       <c r="C13" s="3">
         <v>101</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>99</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1900FC2-A940-4728-9D0D-26416568F2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA81D5C-3C6B-4581-AFED-3481F40663B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,9 @@
       <c r="D2" s="3">
         <v>101</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>101</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
@@ -636,7 +638,9 @@
       <c r="D3" s="3">
         <v>101</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>101</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
@@ -655,7 +659,9 @@
       <c r="D4" s="3">
         <v>101</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>101</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -674,7 +680,9 @@
       <c r="D5" s="3">
         <v>101</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>101</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -693,7 +701,9 @@
       <c r="D6" s="3">
         <v>110</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>110</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
@@ -712,7 +722,9 @@
       <c r="D7" s="3">
         <v>99</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>99</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -731,7 +743,9 @@
       <c r="D8" s="3">
         <v>99</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>99</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
@@ -750,7 +764,9 @@
       <c r="D9" s="3">
         <v>99</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>99</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
@@ -769,7 +785,9 @@
       <c r="D10" s="3">
         <v>99</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>99</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
@@ -788,7 +806,9 @@
       <c r="D11" s="3">
         <v>99</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>99</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
@@ -807,7 +827,9 @@
       <c r="D12" s="3">
         <v>99</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>99</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
@@ -826,7 +848,9 @@
       <c r="D13" s="3">
         <v>99</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>99</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA81D5C-3C6B-4581-AFED-3481F40663B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2447685-8A5A-474E-82E7-85B5EFA8540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,9 @@
       <c r="E2" s="3">
         <v>101</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>101</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
@@ -641,7 +643,9 @@
       <c r="E3" s="3">
         <v>101</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>101</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
@@ -662,7 +666,9 @@
       <c r="E4" s="3">
         <v>101</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>101</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
@@ -683,7 +689,9 @@
       <c r="E5" s="3">
         <v>101</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>101</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
@@ -704,7 +712,9 @@
       <c r="E6" s="3">
         <v>110</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>99</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
@@ -725,7 +735,9 @@
       <c r="E7" s="3">
         <v>99</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>99</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
@@ -746,7 +758,9 @@
       <c r="E8" s="3">
         <v>99</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>99</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
@@ -767,7 +781,9 @@
       <c r="E9" s="3">
         <v>99</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>99</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
@@ -788,7 +804,9 @@
       <c r="E10" s="3">
         <v>99</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>99</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
@@ -809,7 +827,9 @@
       <c r="E11" s="3">
         <v>99</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>99</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
@@ -830,7 +850,9 @@
       <c r="E12" s="3">
         <v>99</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>99</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
@@ -851,7 +873,9 @@
       <c r="E13" s="3">
         <v>99</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>99</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2447685-8A5A-474E-82E7-85B5EFA8540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D82CB9-EFA7-4E59-A960-86E85091819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F107F-E25D-49E3-A8C0-030E9B4338FB}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,9 @@
       <c r="F2" s="3">
         <v>101</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>101</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
@@ -646,7 +648,9 @@
       <c r="F3" s="3">
         <v>101</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>101</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
@@ -669,7 +673,9 @@
       <c r="F4" s="3">
         <v>101</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>101</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
@@ -692,7 +698,9 @@
       <c r="F5" s="3">
         <v>101</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>101</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
@@ -715,7 +723,9 @@
       <c r="F6" s="3">
         <v>99</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>99</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
@@ -738,7 +748,9 @@
       <c r="F7" s="3">
         <v>99</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>99</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
@@ -761,7 +773,9 @@
       <c r="F8" s="3">
         <v>99</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>99</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
@@ -784,7 +798,9 @@
       <c r="F9" s="3">
         <v>99</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>99</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
     </row>
@@ -807,7 +823,9 @@
       <c r="F10" s="3">
         <v>99</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>99</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
@@ -830,7 +848,9 @@
       <c r="F11" s="3">
         <v>99</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>99</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
@@ -853,7 +873,9 @@
       <c r="F12" s="3">
         <v>99</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>99</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
@@ -876,7 +898,9 @@
       <c r="F13" s="3">
         <v>99</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>99</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D82CB9-EFA7-4E59-A960-86E85091819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C85DC1-B188-4094-85E8-BB7D325F6AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +626,12 @@
       <c r="G2" s="3">
         <v>101</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -651,8 +655,12 @@
       <c r="G3" s="3">
         <v>101</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -676,8 +684,12 @@
       <c r="G4" s="3">
         <v>101</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -701,8 +713,12 @@
       <c r="G5" s="3">
         <v>101</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -726,8 +742,12 @@
       <c r="G6" s="3">
         <v>99</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -751,8 +771,12 @@
       <c r="G7" s="3">
         <v>99</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -776,8 +800,12 @@
       <c r="G8" s="3">
         <v>99</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -801,8 +829,12 @@
       <c r="G9" s="3">
         <v>99</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -826,8 +858,12 @@
       <c r="G10" s="3">
         <v>99</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -851,8 +887,12 @@
       <c r="G11" s="3">
         <v>99</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -876,8 +916,12 @@
       <c r="G12" s="3">
         <v>99</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -901,8 +945,12 @@
       <c r="G13" s="3">
         <v>99</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C85DC1-B188-4094-85E8-BB7D325F6AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFABB7-F08C-4E43-8C6F-1EBEC52ADC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>99</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
         <v>99</v>
@@ -772,7 +772,7 @@
         <v>99</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3">
         <v>99</v>
@@ -801,7 +801,7 @@
         <v>99</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>99</v>
@@ -830,7 +830,7 @@
         <v>99</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>99</v>
@@ -859,7 +859,7 @@
         <v>99</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>99</v>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFABB7-F08C-4E43-8C6F-1EBEC52ADC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579FB3A9-D4BA-46BF-85F9-507546E56CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F107F-E25D-49E3-A8C0-030E9B4338FB}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,27 +611,13 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3">
-        <v>101</v>
-      </c>
-      <c r="E2" s="3">
-        <v>101</v>
-      </c>
-      <c r="F2" s="3">
-        <v>101</v>
-      </c>
-      <c r="G2" s="3">
-        <v>101</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>100</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -640,27 +626,13 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
-        <v>110</v>
-      </c>
-      <c r="D3" s="3">
-        <v>101</v>
-      </c>
-      <c r="E3" s="3">
-        <v>101</v>
-      </c>
-      <c r="F3" s="3">
-        <v>101</v>
-      </c>
-      <c r="G3" s="3">
-        <v>101</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -669,27 +641,13 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
-        <v>110</v>
-      </c>
-      <c r="D4" s="3">
-        <v>101</v>
-      </c>
-      <c r="E4" s="3">
-        <v>101</v>
-      </c>
-      <c r="F4" s="3">
-        <v>101</v>
-      </c>
-      <c r="G4" s="3">
-        <v>101</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>99</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -698,27 +656,13 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
-        <v>109</v>
-      </c>
-      <c r="D5" s="3">
-        <v>101</v>
-      </c>
-      <c r="E5" s="3">
-        <v>101</v>
-      </c>
-      <c r="F5" s="3">
-        <v>101</v>
-      </c>
-      <c r="G5" s="3">
-        <v>101</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>99</v>
-      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -727,27 +671,13 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
-        <v>108</v>
-      </c>
-      <c r="D6" s="3">
-        <v>110</v>
-      </c>
-      <c r="E6" s="3">
-        <v>110</v>
-      </c>
-      <c r="F6" s="3">
-        <v>99</v>
-      </c>
-      <c r="G6" s="3">
-        <v>99</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>99</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -756,27 +686,13 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5">
-        <v>107</v>
-      </c>
-      <c r="D7" s="3">
-        <v>99</v>
-      </c>
-      <c r="E7" s="3">
-        <v>99</v>
-      </c>
-      <c r="F7" s="3">
-        <v>99</v>
-      </c>
-      <c r="G7" s="3">
-        <v>99</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3">
-        <v>99</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -785,27 +701,13 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
-        <v>106</v>
-      </c>
-      <c r="D8" s="3">
-        <v>99</v>
-      </c>
-      <c r="E8" s="3">
-        <v>99</v>
-      </c>
-      <c r="F8" s="3">
-        <v>99</v>
-      </c>
-      <c r="G8" s="3">
-        <v>99</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>99</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -814,27 +716,13 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
-        <v>105</v>
-      </c>
-      <c r="D9" s="3">
-        <v>99</v>
-      </c>
-      <c r="E9" s="3">
-        <v>99</v>
-      </c>
-      <c r="F9" s="3">
-        <v>99</v>
-      </c>
-      <c r="G9" s="3">
-        <v>99</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>99</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -843,27 +731,13 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3">
-        <v>104</v>
-      </c>
-      <c r="D10" s="3">
-        <v>99</v>
-      </c>
-      <c r="E10" s="3">
-        <v>99</v>
-      </c>
-      <c r="F10" s="3">
-        <v>99</v>
-      </c>
-      <c r="G10" s="3">
-        <v>99</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>99</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -872,27 +746,13 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3">
-        <v>103</v>
-      </c>
-      <c r="D11" s="3">
-        <v>99</v>
-      </c>
-      <c r="E11" s="3">
-        <v>99</v>
-      </c>
-      <c r="F11" s="3">
-        <v>99</v>
-      </c>
-      <c r="G11" s="3">
-        <v>99</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>99</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -901,27 +761,13 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3">
-        <v>102</v>
-      </c>
-      <c r="D12" s="3">
-        <v>99</v>
-      </c>
-      <c r="E12" s="3">
-        <v>99</v>
-      </c>
-      <c r="F12" s="3">
-        <v>99</v>
-      </c>
-      <c r="G12" s="3">
-        <v>99</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>99</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -930,27 +776,13 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3">
-        <v>101</v>
-      </c>
-      <c r="D13" s="3">
-        <v>99</v>
-      </c>
-      <c r="E13" s="3">
-        <v>99</v>
-      </c>
-      <c r="F13" s="3">
-        <v>99</v>
-      </c>
-      <c r="G13" s="3">
-        <v>99</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>99</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579FB3A9-D4BA-46BF-85F9-507546E56CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C588A7-BE5E-499C-AFD8-B06013D46523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,20 +159,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.499984740745262"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="0.59999389629810485"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,15 +199,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F107F-E25D-49E3-A8C0-030E9B4338FB}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +568,7 @@
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +604,9 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6">
+        <v>6523</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -626,7 +621,9 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6">
+        <v>58504</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -641,7 +638,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6">
+        <v>132237</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -656,7 +655,9 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6">
+        <v>11612</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -671,7 +672,9 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6">
+        <v>57284</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -686,7 +689,9 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6">
+        <v>23644</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -701,7 +706,9 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6">
+        <v>66488</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -716,7 +723,9 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6">
+        <v>70022</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -731,7 +740,9 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="6">
+        <v>152621</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -746,7 +757,9 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="6">
+        <v>77549</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -761,7 +774,9 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="6">
+        <v>142997</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -776,7 +791,9 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="6">
+        <v>20379</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -784,6 +801,72 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C588A7-BE5E-499C-AFD8-B06013D46523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6156C8-2F6C-4773-A8F6-E00077F9D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,9 +604,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
-        <v>6523</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -621,9 +619,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
-        <v>58504</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -638,9 +634,7 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
-        <v>132237</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -655,9 +649,7 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
-        <v>11612</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -672,9 +664,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
-        <v>57284</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -689,9 +679,7 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6">
-        <v>23644</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -706,9 +694,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
-        <v>66488</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -723,9 +709,7 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
-        <v>70022</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -740,9 +724,7 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6">
-        <v>152621</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -757,9 +739,7 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6">
-        <v>77549</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -774,9 +754,7 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6">
-        <v>142997</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -791,9 +769,7 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6">
-        <v>20379</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6156C8-2F6C-4773-A8F6-E00077F9D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E2FF0-FBBD-490D-B724-C9437BA2B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -141,7 +141,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +162,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,8 +206,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -212,12 +223,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,7 +564,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +616,9 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6">
+        <v>8.5210331573086181E-4</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -619,7 +633,9 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>7.6424118325185255E-3</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -634,7 +650,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>1.7274196866825384E-2</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -649,7 +667,9 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>1.5168823704226227E-3</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -664,7 +684,9 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>7.4830425169901404E-3</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -679,7 +701,9 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>3.0886295871746889E-3</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -694,7 +718,9 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>8.6853664351239524E-3</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -709,7 +735,9 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>9.1470149278102715E-3</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -724,7 +752,9 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>1.9936970742014389E-2</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -739,7 +769,9 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>1.0130271352385804E-2</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -754,7 +786,9 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6">
+        <v>1.8679781977551133E-2</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -769,7 +803,9 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6">
+        <v>2.6621207222565129E-3</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E2FF0-FBBD-490D-B724-C9437BA2B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6CA2D4-47F3-47F3-A52A-41285F9D5ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="6">
-        <v>8.5210331573086181E-4</v>
+        <v>0.47</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6">
-        <v>7.6424118325185255E-3</v>
+        <v>0.46</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6">
-        <v>1.7274196866825384E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -668,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="6">
-        <v>1.5168823704226227E-3</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6">
-        <v>7.4830425169901404E-3</v>
+        <v>0.3</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6">
-        <v>3.0886295871746889E-3</v>
+        <v>0.48</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -719,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="6">
-        <v>8.6853664351239524E-3</v>
+        <v>0.31</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -736,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="6">
-        <v>9.1470149278102715E-3</v>
+        <v>0.44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -753,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="6">
-        <v>1.9936970742014389E-2</v>
+        <v>0.43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="6">
-        <v>1.0130271352385804E-2</v>
+        <v>0.36</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -787,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6">
-        <v>1.8679781977551133E-2</v>
+        <v>0.44</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -804,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="6">
-        <v>2.6621207222565129E-3</v>
+        <v>0.24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6CA2D4-47F3-47F3-A52A-41285F9D5ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038ED2B-9BB3-41CC-A154-738AF69C2BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -223,7 +223,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="6">
-        <v>0.47</v>
+        <v>1.01</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -668,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="6">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6">
-        <v>0.3</v>
+        <v>0.87</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6">
-        <v>0.48</v>
+        <v>0.82</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -719,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="6">
-        <v>0.31</v>
+        <v>0.73</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -736,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="6">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -753,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="6">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="6">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -787,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -804,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="6">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038ED2B-9BB3-41CC-A154-738AF69C2BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9EAA4F-0BC9-4466-83EB-D49A4A475DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +159,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,11 +196,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -223,13 +212,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,7 +549,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +601,8 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
-        <v>1.01</v>
+      <c r="C2" s="3">
+        <v>101</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -633,8 +618,8 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
-        <v>0.51</v>
+      <c r="C3" s="3">
+        <v>51</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -650,8 +635,8 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.67</v>
+      <c r="C4" s="3">
+        <v>67</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -667,8 +652,8 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.47</v>
+      <c r="C5" s="3">
+        <v>47</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -684,8 +669,8 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.87</v>
+      <c r="C6" s="3">
+        <v>87</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -701,8 +686,8 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.82</v>
+      <c r="C7" s="3">
+        <v>82</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -718,8 +703,8 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.73</v>
+      <c r="C8" s="3">
+        <v>73</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -735,8 +720,8 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.68</v>
+      <c r="C9" s="3">
+        <v>68</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -752,8 +737,8 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.86</v>
+      <c r="C10" s="3">
+        <v>86</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -769,8 +754,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.71</v>
+      <c r="C11" s="3">
+        <v>71</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -786,8 +771,8 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6">
-        <v>0.66</v>
+      <c r="C12" s="3">
+        <v>66</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -803,8 +788,8 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6">
-        <v>0.42</v>
+      <c r="C13" s="3">
+        <v>42</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9EAA4F-0BC9-4466-83EB-D49A4A475DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B654BB-311C-4C0B-B95D-BEBBF65DC064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
@@ -141,7 +141,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +162,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,10 +206,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -212,9 +223,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,7 +564,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,8 +616,8 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>101</v>
+      <c r="C2" s="6">
+        <v>1.01</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -618,8 +633,8 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
-        <v>51</v>
+      <c r="C3" s="6">
+        <v>0.51</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -635,8 +650,8 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
-        <v>67</v>
+      <c r="C4" s="6">
+        <v>0.67</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -652,8 +667,8 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
-        <v>47</v>
+      <c r="C5" s="6">
+        <v>0.47</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -669,8 +684,8 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
-        <v>87</v>
+      <c r="C6" s="6">
+        <v>0.87</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -686,8 +701,8 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
-        <v>82</v>
+      <c r="C7" s="6">
+        <v>0.82</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -703,8 +718,8 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
-        <v>73</v>
+      <c r="C8" s="6">
+        <v>0.73</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -720,8 +735,8 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3">
-        <v>68</v>
+      <c r="C9" s="6">
+        <v>0.68</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -737,8 +752,8 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3">
-        <v>86</v>
+      <c r="C10" s="6">
+        <v>0.86</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -754,8 +769,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3">
-        <v>71</v>
+      <c r="C11" s="6">
+        <v>0.71</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -771,8 +786,8 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3">
-        <v>66</v>
+      <c r="C12" s="6">
+        <v>0.66</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -788,8 +803,8 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3">
-        <v>42</v>
+      <c r="C13" s="6">
+        <v>0.42</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>

--- a/Planilla_Wurth_World_Cup_2026.xlsx
+++ b/Planilla_Wurth_World_Cup_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Campañas\Campañas Würth Int\2026\Mundial Würth - Comprende todas las campañas hasta Julio inclusive\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B654BB-311C-4C0B-B95D-BEBBF65DC064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA5158-B853-46D4-A01D-3C847A6760A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4845B6FB-6455-4915-85AD-192BD8A40A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -223,7 +223,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="6">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6">
-        <v>0.67</v>
+        <v>0.94</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -668,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="6">
-        <v>0.47</v>
+        <v>0.79</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -719,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="6">
-        <v>0.73</v>
+        <v>1.02</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -736,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="6">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -753,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="6">
-        <v>0.86</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="6">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -787,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -804,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="6">
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
